--- a/YellowPage/src/main/webapp/template/LogsStatsSystem.xlsx
+++ b/YellowPage/src/main/webapp/template/LogsStatsSystem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>배포 성공 횟수</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -62,6 +62,10 @@
   </si>
   <si>
     <t>인터페이스 타입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터페이스 종류</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +492,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -525,7 +529,7 @@
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="5"/>

--- a/YellowPage/src/main/webapp/template/LogsStatsSystem.xlsx
+++ b/YellowPage/src/main/webapp/template/LogsStatsSystem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>배포 성공 횟수</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t>인터페이스 타입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터페이스 종류</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +488,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -529,7 +525,7 @@
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="5"/>
